--- a/INTLINE/data/548/DSM/Malaysian Economic Indicators_historical.xlsx
+++ b/INTLINE/data/548/DSM/Malaysian Economic Indicators_historical.xlsx
@@ -3417,9 +3417,11 @@
         <v>110.9</v>
       </c>
       <c r="NL2" t="n">
-        <v>111.3</v>
-      </c>
-      <c r="NM2" t="inlineStr"/>
+        <v>111.4</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>110.8</v>
+      </c>
       <c r="NN2" t="inlineStr"/>
       <c r="NO2" t="inlineStr"/>
       <c r="NP2" t="inlineStr"/>
@@ -4560,7 +4562,9 @@
       <c r="NL3" t="n">
         <v>117.9</v>
       </c>
-      <c r="NM3" t="inlineStr"/>
+      <c r="NM3" t="n">
+        <v>120.3</v>
+      </c>
       <c r="NN3" t="inlineStr"/>
       <c r="NO3" t="inlineStr"/>
       <c r="NP3" t="inlineStr"/>
@@ -5696,12 +5700,14 @@
         <v>128.6</v>
       </c>
       <c r="NK4" t="n">
-        <v>128.1</v>
+        <v>127.9</v>
       </c>
       <c r="NL4" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="NM4" t="inlineStr"/>
+        <v>133.1</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>133.8</v>
+      </c>
       <c r="NN4" t="inlineStr"/>
       <c r="NO4" t="inlineStr"/>
       <c r="NP4" t="inlineStr"/>
